--- a/Assets/Resources/怪物属性.xlsx
+++ b/Assets/Resources/怪物属性.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daerh\Desktop\MOTA\Assets\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C732912D-4813-421C-B9B1-B28A3FBB152E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大蝙蝠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +384,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>95</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/怪物属性.xlsx
+++ b/Assets/Resources/怪物属性.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daerh\Desktop\MOTA\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C732912D-4813-421C-B9B1-B28A3FBB152E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218161BA-C51A-409D-9A16-828D877CB54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,22 @@
   </si>
   <si>
     <t>红色史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅队长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -447,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -464,7 +480,75 @@
         <v>2</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>42</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <v>204</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>144</v>
+      </c>
+      <c r="C8">
+        <v>308</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/怪物属性.xlsx
+++ b/Assets/Resources/怪物属性.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daerh\Desktop\MOTA\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218161BA-C51A-409D-9A16-828D877CB54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59AC996-CA5A-42BB-A161-90080BA06896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -542,7 +542,7 @@
         <v>144</v>
       </c>
       <c r="C8">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="D8">
         <v>22</v>
